--- a/stocks/hold.xlsx
+++ b/stocks/hold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\sync_ck\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36604338-0B86-4D14-A718-3FB72B73B747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A5C34-0830-4EEC-8965-40D27F2C966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1035" windowWidth="17580" windowHeight="14415" xr2:uid="{BCD3FE33-1FE4-4A44-A613-B7AED2C9FFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCD3FE33-1FE4-4A44-A613-B7AED2C9FFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="hold" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
